--- a/pStudent Course Matrix.xlsx
+++ b/pStudent Course Matrix.xlsx
@@ -14,204 +14,207 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+  <si>
+    <t>WHCP612</t>
+  </si>
+  <si>
+    <t>OIDD615</t>
+  </si>
+  <si>
+    <t>MGMT610</t>
+  </si>
+  <si>
+    <t>MKTG611</t>
+  </si>
+  <si>
+    <t>MGEC611</t>
+  </si>
+  <si>
+    <t>MGEC612</t>
+  </si>
+  <si>
+    <t>FNCE611</t>
+  </si>
+  <si>
+    <t>WHCP611</t>
+  </si>
+  <si>
+    <t>OIDD612</t>
+  </si>
+  <si>
+    <t>FNCE613</t>
+  </si>
+  <si>
+    <t>MGMT804</t>
+  </si>
+  <si>
+    <t>MGMT612</t>
+  </si>
+  <si>
+    <t>LGST611</t>
+  </si>
+  <si>
+    <t>MKTG613</t>
+  </si>
+  <si>
+    <t>STAT621</t>
+  </si>
+  <si>
+    <t>STAT613</t>
+  </si>
+  <si>
+    <t>STAT711</t>
+  </si>
+  <si>
+    <t>MGMT891</t>
+  </si>
+  <si>
+    <t>ACCT613</t>
+  </si>
+  <si>
+    <t>MGMT691</t>
+  </si>
   <si>
     <t>ACCT611</t>
   </si>
   <si>
-    <t>ACCT613</t>
+    <t>FNCE750</t>
+  </si>
+  <si>
+    <t>FNCE728</t>
+  </si>
+  <si>
+    <t>FNCE721</t>
+  </si>
+  <si>
+    <t>FNCE887</t>
+  </si>
+  <si>
+    <t>MED 589</t>
+  </si>
+  <si>
+    <t>NPLD791</t>
+  </si>
+  <si>
+    <t>FNCE726</t>
+  </si>
+  <si>
+    <t>OIDD613</t>
+  </si>
+  <si>
+    <t>OIDD636</t>
+  </si>
+  <si>
+    <t>OIDD643</t>
+  </si>
+  <si>
+    <t>OIDD652</t>
+  </si>
+  <si>
+    <t>OIDD673</t>
+  </si>
+  <si>
+    <t>OIDD691</t>
+  </si>
+  <si>
+    <t>MKTG776</t>
+  </si>
+  <si>
+    <t>OIDD697</t>
+  </si>
+  <si>
+    <t>OIDD763</t>
+  </si>
+  <si>
+    <t>OIDD892</t>
+  </si>
+  <si>
+    <t>FNCE720</t>
+  </si>
+  <si>
+    <t>FNCE719</t>
+  </si>
+  <si>
+    <t>STAT705</t>
+  </si>
+  <si>
+    <t>FNCE615</t>
+  </si>
+  <si>
+    <t>STAT722</t>
   </si>
   <si>
     <t>CIS 545</t>
   </si>
   <si>
-    <t>FNCE611</t>
-  </si>
-  <si>
-    <t>FNCE613</t>
-  </si>
-  <si>
-    <t>FNCE615</t>
-  </si>
-  <si>
-    <t>FNCE719</t>
-  </si>
-  <si>
-    <t>FNCE720</t>
-  </si>
-  <si>
-    <t>FNCE721</t>
-  </si>
-  <si>
-    <t>FNCE726</t>
-  </si>
-  <si>
-    <t>FNCE728</t>
+    <t>NPLD782</t>
+  </si>
+  <si>
+    <t>MKTG727</t>
+  </si>
+  <si>
+    <t>MKTG734</t>
+  </si>
+  <si>
+    <t>LGST806</t>
+  </si>
+  <si>
+    <t>LGST612</t>
+  </si>
+  <si>
+    <t>LARP710</t>
+  </si>
+  <si>
+    <t>MGMT611</t>
+  </si>
+  <si>
+    <t>FNCE891</t>
+  </si>
+  <si>
+    <t>MGMT625</t>
+  </si>
+  <si>
+    <t>MGMT701</t>
+  </si>
+  <si>
+    <t>MGMT715</t>
+  </si>
+  <si>
+    <t>MGMT721</t>
+  </si>
+  <si>
+    <t>MGMT794</t>
+  </si>
+  <si>
+    <t>FNCE751</t>
+  </si>
+  <si>
+    <t>MGMT806</t>
+  </si>
+  <si>
+    <t>FNCE739</t>
+  </si>
+  <si>
+    <t>MGMT892</t>
   </si>
   <si>
     <t>FNCE738</t>
   </si>
   <si>
-    <t>FNCE739</t>
-  </si>
-  <si>
-    <t>FNCE750</t>
-  </si>
-  <si>
-    <t>FNCE751</t>
-  </si>
-  <si>
-    <t>FNCE887</t>
-  </si>
-  <si>
-    <t>FNCE891</t>
-  </si>
-  <si>
-    <t>LARP710</t>
-  </si>
-  <si>
-    <t>LGST611</t>
-  </si>
-  <si>
-    <t>LGST612</t>
-  </si>
-  <si>
-    <t>LGST806</t>
-  </si>
-  <si>
-    <t>MED 589</t>
-  </si>
-  <si>
-    <t>MGEC611</t>
-  </si>
-  <si>
-    <t>MGEC612</t>
-  </si>
-  <si>
-    <t>MGMT610</t>
-  </si>
-  <si>
-    <t>MGMT611</t>
-  </si>
-  <si>
-    <t>MGMT612</t>
-  </si>
-  <si>
-    <t>MGMT625</t>
-  </si>
-  <si>
-    <t>MGMT691</t>
-  </si>
-  <si>
-    <t>MGMT701</t>
-  </si>
-  <si>
-    <t>MGMT715</t>
-  </si>
-  <si>
-    <t>MGMT721</t>
-  </si>
-  <si>
-    <t>MGMT794</t>
+    <t>MKTG612</t>
+  </si>
+  <si>
+    <t>MKTG712</t>
+  </si>
+  <si>
+    <t>MKTG724</t>
   </si>
   <si>
     <t>MGMT801</t>
   </si>
   <si>
-    <t>MGMT804</t>
-  </si>
-  <si>
-    <t>MGMT806</t>
-  </si>
-  <si>
-    <t>MGMT891</t>
-  </si>
-  <si>
-    <t>MGMT892</t>
-  </si>
-  <si>
-    <t>MKTG611</t>
-  </si>
-  <si>
-    <t>MKTG612</t>
-  </si>
-  <si>
-    <t>MKTG613</t>
-  </si>
-  <si>
-    <t>MKTG712</t>
-  </si>
-  <si>
-    <t>MKTG724</t>
-  </si>
-  <si>
-    <t>MKTG727</t>
-  </si>
-  <si>
-    <t>MKTG734</t>
-  </si>
-  <si>
-    <t>MKTG776</t>
-  </si>
-  <si>
-    <t>NPLD782</t>
-  </si>
-  <si>
-    <t>NPLD791</t>
-  </si>
-  <si>
-    <t>OIDD612</t>
-  </si>
-  <si>
-    <t>OIDD613</t>
-  </si>
-  <si>
-    <t>OIDD615</t>
-  </si>
-  <si>
-    <t>OIDD636</t>
-  </si>
-  <si>
-    <t>OIDD643</t>
-  </si>
-  <si>
-    <t>OIDD652</t>
-  </si>
-  <si>
-    <t>OIDD673</t>
-  </si>
-  <si>
-    <t>OIDD691</t>
-  </si>
-  <si>
-    <t>OIDD697</t>
-  </si>
-  <si>
-    <t>OIDD763</t>
-  </si>
-  <si>
-    <t>OIDD892</t>
-  </si>
-  <si>
-    <t>STAT613</t>
-  </si>
-  <si>
-    <t>STAT621</t>
-  </si>
-  <si>
-    <t>STAT705</t>
-  </si>
-  <si>
-    <t>STAT711</t>
-  </si>
-  <si>
-    <t>STAT722</t>
-  </si>
-  <si>
-    <t>WHCP611</t>
-  </si>
-  <si>
-    <t>WHCP612</t>
+    <t>Sum</t>
   </si>
 </sst>
 </file>
@@ -569,7 +572,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BO5"/>
+  <dimension ref="A1:BO6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -780,13 +783,13 @@
         <v>10755271</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -795,54 +798,39 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2">
         <v>1</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>1</v>
-      </c>
-      <c r="R2">
-        <v>1</v>
-      </c>
-      <c r="S2">
         <v>1</v>
       </c>
       <c r="T2">
         <v>1</v>
       </c>
       <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2">
         <v>1</v>
       </c>
       <c r="X2">
@@ -855,126 +843,30 @@
         <v>1</v>
       </c>
       <c r="AA2">
-        <v>0</v>
-      </c>
-      <c r="AB2">
-        <v>1</v>
-      </c>
-      <c r="AC2">
-        <v>0</v>
-      </c>
-      <c r="AD2">
-        <v>1</v>
-      </c>
-      <c r="AE2">
-        <v>0</v>
-      </c>
-      <c r="AF2">
-        <v>0</v>
-      </c>
-      <c r="AG2">
         <v>1</v>
       </c>
       <c r="AH2">
         <v>1</v>
       </c>
-      <c r="AI2">
-        <v>0</v>
-      </c>
-      <c r="AJ2">
-        <v>1</v>
-      </c>
-      <c r="AK2">
-        <v>0</v>
-      </c>
-      <c r="AL2">
-        <v>0</v>
-      </c>
-      <c r="AM2">
-        <v>0</v>
-      </c>
-      <c r="AN2">
-        <v>1</v>
-      </c>
-      <c r="AO2">
-        <v>0</v>
-      </c>
-      <c r="AP2">
-        <v>1</v>
-      </c>
-      <c r="AQ2">
-        <v>0</v>
-      </c>
-      <c r="AR2">
-        <v>1</v>
-      </c>
-      <c r="AS2">
-        <v>1</v>
-      </c>
-      <c r="AT2">
-        <v>1</v>
-      </c>
       <c r="AU2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV2">
-        <v>0</v>
-      </c>
-      <c r="AW2">
-        <v>0</v>
-      </c>
-      <c r="AX2">
         <v>1</v>
       </c>
       <c r="AY2">
-        <v>0</v>
-      </c>
-      <c r="AZ2">
         <v>1</v>
       </c>
       <c r="BA2">
-        <v>0</v>
-      </c>
-      <c r="BB2">
-        <v>0</v>
-      </c>
-      <c r="BC2">
-        <v>0</v>
-      </c>
-      <c r="BD2">
         <v>1</v>
       </c>
       <c r="BE2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF2">
-        <v>0</v>
-      </c>
-      <c r="BG2">
-        <v>0</v>
-      </c>
-      <c r="BH2">
-        <v>0</v>
-      </c>
-      <c r="BI2">
-        <v>0</v>
-      </c>
-      <c r="BJ2">
-        <v>1</v>
-      </c>
-      <c r="BK2">
-        <v>0</v>
-      </c>
-      <c r="BL2">
-        <v>0</v>
-      </c>
-      <c r="BM2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN2">
-        <v>1</v>
-      </c>
-      <c r="BO2">
         <v>1</v>
       </c>
     </row>
@@ -986,10 +878,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -998,97 +890,58 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O3">
         <v>1</v>
       </c>
       <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>1</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <v>1</v>
-      </c>
-      <c r="U3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X3">
         <v>1</v>
       </c>
-      <c r="Y3">
-        <v>1</v>
-      </c>
       <c r="Z3">
         <v>1</v>
       </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
-      <c r="AB3">
-        <v>1</v>
-      </c>
-      <c r="AC3">
-        <v>1</v>
-      </c>
-      <c r="AD3">
-        <v>0</v>
-      </c>
       <c r="AE3">
         <v>1</v>
       </c>
-      <c r="AF3">
-        <v>1</v>
-      </c>
       <c r="AG3">
-        <v>0</v>
-      </c>
-      <c r="AH3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI3">
-        <v>0</v>
-      </c>
-      <c r="AJ3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL3">
         <v>1</v>
@@ -1096,88 +949,19 @@
       <c r="AM3">
         <v>1</v>
       </c>
-      <c r="AN3">
-        <v>1</v>
-      </c>
       <c r="AO3">
-        <v>0</v>
-      </c>
-      <c r="AP3">
-        <v>1</v>
-      </c>
-      <c r="AQ3">
-        <v>0</v>
-      </c>
-      <c r="AR3">
-        <v>0</v>
-      </c>
-      <c r="AS3">
-        <v>0</v>
-      </c>
-      <c r="AT3">
-        <v>0</v>
-      </c>
-      <c r="AU3">
-        <v>0</v>
-      </c>
-      <c r="AV3">
-        <v>0</v>
-      </c>
-      <c r="AW3">
-        <v>0</v>
-      </c>
-      <c r="AX3">
-        <v>1</v>
-      </c>
-      <c r="AY3">
-        <v>0</v>
-      </c>
-      <c r="AZ3">
-        <v>1</v>
-      </c>
-      <c r="BA3">
         <v>1</v>
       </c>
       <c r="BB3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC3">
         <v>1</v>
       </c>
       <c r="BD3">
-        <v>0</v>
-      </c>
-      <c r="BE3">
-        <v>1</v>
-      </c>
-      <c r="BF3">
-        <v>1</v>
-      </c>
-      <c r="BG3">
-        <v>1</v>
-      </c>
-      <c r="BH3">
-        <v>1</v>
-      </c>
-      <c r="BI3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ3">
-        <v>1</v>
-      </c>
-      <c r="BK3">
-        <v>0</v>
-      </c>
-      <c r="BL3">
-        <v>0</v>
-      </c>
-      <c r="BM3">
-        <v>0</v>
-      </c>
-      <c r="BN3">
-        <v>1</v>
-      </c>
-      <c r="BO3">
         <v>1</v>
       </c>
     </row>
@@ -1189,10 +973,10 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1201,186 +985,63 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
         <v>1</v>
       </c>
       <c r="N4">
         <v>1</v>
       </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
       <c r="Q4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
         <v>1</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W4">
-        <v>0</v>
-      </c>
-      <c r="X4">
         <v>1</v>
       </c>
       <c r="Y4">
         <v>1</v>
       </c>
-      <c r="Z4">
-        <v>1</v>
-      </c>
-      <c r="AA4">
-        <v>1</v>
-      </c>
-      <c r="AB4">
-        <v>0</v>
-      </c>
       <c r="AC4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD4">
         <v>1</v>
       </c>
-      <c r="AE4">
-        <v>0</v>
-      </c>
-      <c r="AF4">
-        <v>0</v>
-      </c>
-      <c r="AG4">
-        <v>0</v>
-      </c>
-      <c r="AH4">
-        <v>0</v>
-      </c>
-      <c r="AI4">
-        <v>0</v>
-      </c>
-      <c r="AJ4">
-        <v>1</v>
-      </c>
-      <c r="AK4">
-        <v>0</v>
-      </c>
-      <c r="AL4">
-        <v>0</v>
-      </c>
-      <c r="AM4">
-        <v>0</v>
-      </c>
       <c r="AN4">
         <v>1</v>
       </c>
-      <c r="AO4">
-        <v>1</v>
-      </c>
-      <c r="AP4">
-        <v>0</v>
-      </c>
-      <c r="AQ4">
-        <v>0</v>
-      </c>
-      <c r="AR4">
-        <v>0</v>
-      </c>
-      <c r="AS4">
-        <v>0</v>
-      </c>
-      <c r="AT4">
-        <v>0</v>
-      </c>
-      <c r="AU4">
-        <v>0</v>
-      </c>
-      <c r="AV4">
-        <v>0</v>
-      </c>
-      <c r="AW4">
-        <v>0</v>
-      </c>
-      <c r="AX4">
-        <v>0</v>
-      </c>
-      <c r="AY4">
-        <v>1</v>
-      </c>
       <c r="AZ4">
         <v>1</v>
       </c>
-      <c r="BA4">
-        <v>0</v>
-      </c>
-      <c r="BB4">
-        <v>0</v>
-      </c>
-      <c r="BC4">
-        <v>0</v>
-      </c>
-      <c r="BD4">
-        <v>0</v>
-      </c>
-      <c r="BE4">
-        <v>0</v>
-      </c>
-      <c r="BF4">
-        <v>0</v>
-      </c>
       <c r="BG4">
-        <v>0</v>
-      </c>
-      <c r="BH4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI4">
         <v>1</v>
       </c>
-      <c r="BJ4">
-        <v>0</v>
-      </c>
       <c r="BK4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL4">
-        <v>1</v>
-      </c>
-      <c r="BM4">
-        <v>0</v>
-      </c>
-      <c r="BN4">
-        <v>1</v>
-      </c>
-      <c r="BO4">
         <v>1</v>
       </c>
     </row>
@@ -1389,7 +1050,7 @@
         <v>46238486</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -1401,113 +1062,50 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>1</v>
-      </c>
-      <c r="V5">
-        <v>1</v>
-      </c>
-      <c r="W5">
-        <v>0</v>
-      </c>
-      <c r="X5">
-        <v>1</v>
-      </c>
-      <c r="Y5">
-        <v>1</v>
-      </c>
-      <c r="Z5">
-        <v>1</v>
-      </c>
-      <c r="AA5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB5">
         <v>1</v>
       </c>
-      <c r="AC5">
-        <v>0</v>
-      </c>
-      <c r="AD5">
-        <v>0</v>
-      </c>
-      <c r="AE5">
-        <v>0</v>
-      </c>
       <c r="AF5">
-        <v>0</v>
-      </c>
-      <c r="AG5">
-        <v>0</v>
-      </c>
-      <c r="AH5">
-        <v>0</v>
-      </c>
-      <c r="AI5">
         <v>1</v>
       </c>
       <c r="AJ5">
         <v>1</v>
       </c>
-      <c r="AK5">
-        <v>1</v>
-      </c>
-      <c r="AL5">
-        <v>1</v>
-      </c>
-      <c r="AM5">
-        <v>0</v>
-      </c>
-      <c r="AN5">
-        <v>1</v>
-      </c>
-      <c r="AO5">
-        <v>0</v>
-      </c>
       <c r="AP5">
         <v>1</v>
       </c>
@@ -1515,18 +1113,12 @@
         <v>1</v>
       </c>
       <c r="AR5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT5">
-        <v>0</v>
-      </c>
-      <c r="AU5">
-        <v>1</v>
-      </c>
-      <c r="AV5">
         <v>1</v>
       </c>
       <c r="AW5">
@@ -1535,55 +1127,216 @@
       <c r="AX5">
         <v>1</v>
       </c>
-      <c r="AY5">
-        <v>0</v>
-      </c>
-      <c r="AZ5">
-        <v>1</v>
-      </c>
-      <c r="BA5">
-        <v>0</v>
-      </c>
-      <c r="BB5">
-        <v>1</v>
-      </c>
-      <c r="BC5">
-        <v>0</v>
-      </c>
-      <c r="BD5">
-        <v>0</v>
-      </c>
-      <c r="BE5">
-        <v>0</v>
-      </c>
-      <c r="BF5">
-        <v>0</v>
-      </c>
-      <c r="BG5">
-        <v>0</v>
-      </c>
       <c r="BH5">
-        <v>0</v>
-      </c>
-      <c r="BI5">
-        <v>1</v>
-      </c>
-      <c r="BJ5">
-        <v>0</v>
-      </c>
-      <c r="BK5">
-        <v>1</v>
-      </c>
-      <c r="BL5">
         <v>1</v>
       </c>
       <c r="BM5">
         <v>1</v>
       </c>
-      <c r="BN5">
-        <v>1</v>
-      </c>
       <c r="BO5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:67">
+      <c r="A6" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <v>4</v>
+      </c>
+      <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="I6">
+        <v>4</v>
+      </c>
+      <c r="J6">
+        <v>3</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>3</v>
+      </c>
+      <c r="M6">
+        <v>3</v>
+      </c>
+      <c r="N6">
+        <v>3</v>
+      </c>
+      <c r="O6">
+        <v>3</v>
+      </c>
+      <c r="P6">
+        <v>2</v>
+      </c>
+      <c r="Q6">
+        <v>2</v>
+      </c>
+      <c r="R6">
+        <v>2</v>
+      </c>
+      <c r="S6">
+        <v>2</v>
+      </c>
+      <c r="T6">
+        <v>2</v>
+      </c>
+      <c r="U6">
+        <v>2</v>
+      </c>
+      <c r="V6">
+        <v>2</v>
+      </c>
+      <c r="W6">
+        <v>2</v>
+      </c>
+      <c r="X6">
+        <v>2</v>
+      </c>
+      <c r="Y6">
+        <v>2</v>
+      </c>
+      <c r="Z6">
+        <v>2</v>
+      </c>
+      <c r="AA6">
+        <v>1</v>
+      </c>
+      <c r="AB6">
+        <v>1</v>
+      </c>
+      <c r="AC6">
+        <v>1</v>
+      </c>
+      <c r="AD6">
+        <v>1</v>
+      </c>
+      <c r="AE6">
+        <v>1</v>
+      </c>
+      <c r="AF6">
+        <v>1</v>
+      </c>
+      <c r="AG6">
+        <v>1</v>
+      </c>
+      <c r="AH6">
+        <v>1</v>
+      </c>
+      <c r="AI6">
+        <v>1</v>
+      </c>
+      <c r="AJ6">
+        <v>1</v>
+      </c>
+      <c r="AK6">
+        <v>1</v>
+      </c>
+      <c r="AL6">
+        <v>1</v>
+      </c>
+      <c r="AM6">
+        <v>1</v>
+      </c>
+      <c r="AN6">
+        <v>1</v>
+      </c>
+      <c r="AO6">
+        <v>1</v>
+      </c>
+      <c r="AP6">
+        <v>1</v>
+      </c>
+      <c r="AQ6">
+        <v>1</v>
+      </c>
+      <c r="AR6">
+        <v>1</v>
+      </c>
+      <c r="AS6">
+        <v>1</v>
+      </c>
+      <c r="AT6">
+        <v>1</v>
+      </c>
+      <c r="AU6">
+        <v>1</v>
+      </c>
+      <c r="AV6">
+        <v>1</v>
+      </c>
+      <c r="AW6">
+        <v>1</v>
+      </c>
+      <c r="AX6">
+        <v>1</v>
+      </c>
+      <c r="AY6">
+        <v>1</v>
+      </c>
+      <c r="AZ6">
+        <v>1</v>
+      </c>
+      <c r="BA6">
+        <v>1</v>
+      </c>
+      <c r="BB6">
+        <v>1</v>
+      </c>
+      <c r="BC6">
+        <v>1</v>
+      </c>
+      <c r="BD6">
+        <v>1</v>
+      </c>
+      <c r="BE6">
+        <v>1</v>
+      </c>
+      <c r="BF6">
+        <v>1</v>
+      </c>
+      <c r="BG6">
+        <v>1</v>
+      </c>
+      <c r="BH6">
+        <v>1</v>
+      </c>
+      <c r="BI6">
+        <v>1</v>
+      </c>
+      <c r="BJ6">
+        <v>1</v>
+      </c>
+      <c r="BK6">
+        <v>1</v>
+      </c>
+      <c r="BL6">
+        <v>1</v>
+      </c>
+      <c r="BM6">
+        <v>1</v>
+      </c>
+      <c r="BN6">
+        <v>1</v>
+      </c>
+      <c r="BO6">
         <v>1</v>
       </c>
     </row>
